--- a/util/data.xlsx
+++ b/util/data.xlsx
@@ -1010,7 +1010,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>测试x</t>
+          <t>测试U</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>测试w</t>
+          <t>测试U</t>
         </is>
       </c>
     </row>

--- a/util/data.xlsx
+++ b/util/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="6"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="场景" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,13 @@
     <t>beizhu</t>
   </si>
   <si>
-    <t>测试场景</t>
+    <t>测试场景a</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>测试业务</t>
+    <t>测试业务a</t>
   </si>
   <si>
     <t>添加业务</t>
@@ -46,13 +46,13 @@
     <t>phone</t>
   </si>
   <si>
-    <t>租户axa</t>
+    <t>租户c</t>
   </si>
   <si>
     <t>张三</t>
   </si>
   <si>
-    <t>13900002201</t>
+    <t>13908002201</t>
   </si>
   <si>
     <t>添加</t>
@@ -61,7 +61,7 @@
     <t>im</t>
   </si>
   <si>
-    <t>13800141111</t>
+    <t>13800142323</t>
   </si>
   <si>
     <t>hh</t>
@@ -73,7 +73,7 @@
     <t>port</t>
   </si>
   <si>
-    <t>测试专网等级模板</t>
+    <t>测试专网等级模板a</t>
   </si>
   <si>
     <t>10.1.1.2</t>
@@ -82,7 +82,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>测试切片模版</t>
+    <t>测试切片模版A</t>
   </si>
   <si>
     <t>10.1.1.1</t>
@@ -91,7 +91,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>ADidasOYasz</t>
+    <t>ADiddmjmdOYasz</t>
   </si>
   <si>
     <t>添加系统用户</t>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,7 +117,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,130 +216,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,19 +269,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,163 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,6 +513,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,65 +560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1318,7 +1318,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1366,8 +1366,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/util/data.xlsx
+++ b/util/data.xlsx
@@ -1010,7 +1010,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>测试p</t>
+          <t>测试v</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>测试A</t>
+          <t>测试v</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>租户J</t>
+          <t>租户D</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>18530961773</t>
+          <t>18536351170</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -1226,7 +1226,7 @@
     <row customHeight="1" ht="14" r="2" s="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>18530961773</t>
+          <t>18536351170</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
@@ -1354,7 +1354,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>切片模版T</t>
+          <t>切片模版u</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -1411,7 +1411,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>7H3t19K2</t>
+          <t>NB022X5m</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
